--- a/ClinData.xlsx
+++ b/ClinData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/henrique_chapola_uib_no/Documents/PhD/Lectures/Python-2025/Python Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DF55F533-2F30-4470-951B-F126EC8DBA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E90D57E-488C-4F26-81F5-610FF1446C08}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{DF55F533-2F30-4470-951B-F126EC8DBA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E415DA25-93AD-4391-BA23-69CED6060419}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8BC95CAE-FC01-4E92-8CA2-30FF1FF534BF}"/>
+    <workbookView xWindow="57480" yWindow="8385" windowWidth="29040" windowHeight="17520" xr2:uid="{8BC95CAE-FC01-4E92-8CA2-30FF1FF534BF}"/>
   </bookViews>
   <sheets>
     <sheet name="ClinData" sheetId="2" r:id="rId1"/>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>Glicemia</t>
@@ -56,7 +47,13 @@
     <t>Urea</t>
   </si>
   <si>
-    <t>"86"</t>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -109,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,34 +429,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD07622E-6C0D-4521-82B7-0A816895119A}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>78</v>
@@ -463,13 +470,16 @@
       <c r="D2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>65</v>
@@ -477,13 +487,19 @@
       <c r="D3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>115</v>
@@ -491,13 +507,19 @@
       <c r="D4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>163</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>70</v>
@@ -505,13 +527,19 @@
       <c r="D5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>174</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -519,24 +547,36 @@
       <c r="D6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>176</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>234</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
         <v>86</v>
@@ -544,13 +584,19 @@
       <c r="D8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>241</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9">
         <v>89</v>
@@ -558,13 +604,19 @@
       <c r="D9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>246</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>70</v>
@@ -572,13 +624,19 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>254</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>69</v>
@@ -586,13 +644,19 @@
       <c r="D11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>261</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
         <v>48</v>
@@ -600,13 +664,19 @@
       <c r="D12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>261</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13">
         <v>48</v>
@@ -614,13 +684,19 @@
       <c r="D13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>275</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14">
         <v>78</v>
@@ -628,13 +704,19 @@
       <c r="D14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>290</v>
       </c>
-      <c r="B15" t="s">
-        <v>2</v>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>146</v>
@@ -642,13 +724,19 @@
       <c r="D15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>347</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16">
         <v>67</v>
@@ -656,13 +744,19 @@
       <c r="D16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>423</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>95</v>
@@ -670,13 +764,19 @@
       <c r="D17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>467</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18">
         <v>135</v>
@@ -684,24 +784,30 @@
       <c r="D18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>567</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>728</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -709,13 +815,19 @@
       <c r="D20">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>735</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21">
         <v>72</v>
@@ -723,13 +835,19 @@
       <c r="D21">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>824</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>99</v>
@@ -737,13 +855,19 @@
       <c r="D22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>865</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -751,33 +875,51 @@
       <c r="D23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>920</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>86</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>124</v>
       </c>
-      <c r="B25" t="s">
-        <v>2</v>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25">
         <v>78</v>
       </c>
       <c r="D25">
         <v>25</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
